--- a/shoulder_test/exeloutput/Log_AllInOne.xlsx
+++ b/shoulder_test/exeloutput/Log_AllInOne.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\meowment\Still-Alive\shoulder_test\exeloutput\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F880997D-4EB1-4F95-8D9D-BE84D42926A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC41AEDC-F129-4786-AD2B-8C3C96B2CD99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,173 +20,182 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
   <si>
     <t>logstart</t>
   </si>
   <si>
-    <t xml:space="preserve">2025-7-11 10:2:41 </t>
+    <t xml:space="preserve">2025-7-12 2:42:21 </t>
   </si>
   <si>
     <t>deathcount</t>
   </si>
   <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>stage1death</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>stage2death</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>stage3death</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>stage1play</t>
+  </si>
+  <si>
+    <t>360.0</t>
+  </si>
+  <si>
+    <t>stage2play</t>
+  </si>
+  <si>
+    <t>425.0</t>
+  </si>
+  <si>
+    <t>stage3play</t>
+  </si>
+  <si>
+    <t>695.0</t>
+  </si>
+  <si>
+    <t>jumpcount</t>
+  </si>
+  <si>
+    <t>186</t>
+  </si>
+  <si>
+    <t>stage1jump</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>stage2jump</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>stage3jump</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>climb</t>
+  </si>
+  <si>
     <t>19</t>
   </si>
   <si>
-    <t>stage1death</t>
+    <t>stage1climb</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>stage2climb</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>stage3climb</t>
+  </si>
+  <si>
+    <t>hang</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>stage1hang</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>stage2hang</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>stage3hang</t>
+  </si>
+  <si>
+    <t>attackcount</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>stage1smashattackcount</t>
+  </si>
+  <si>
+    <t>stage1throwingattackcount</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>stage1throwingaccuracy</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>stage2attackcount</t>
+  </si>
+  <si>
+    <t>stage2throwingaccuracy</t>
+  </si>
+  <si>
+    <t>bossyarnattackaccuracy</t>
+  </si>
+  <si>
+    <t>crouch</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>stage1crouch</t>
   </si>
   <si>
     <t>7</t>
   </si>
   <si>
-    <t>stage2death</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>stage3death</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>stage1play</t>
-  </si>
-  <si>
-    <t>384.0</t>
-  </si>
-  <si>
-    <t>stage2play</t>
-  </si>
-  <si>
-    <t>377.0</t>
-  </si>
-  <si>
-    <t>stage3play</t>
-  </si>
-  <si>
-    <t>388.0</t>
-  </si>
-  <si>
-    <t>jumpcount</t>
-  </si>
-  <si>
-    <t>177</t>
-  </si>
-  <si>
-    <t>stage1jump</t>
-  </si>
-  <si>
-    <t>73</t>
-  </si>
-  <si>
-    <t>stage2jump</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>stage3jump</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>climb</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>stage1climb</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>stage2climb</t>
-  </si>
-  <si>
-    <t>stage3climb</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>hang</t>
-  </si>
-  <si>
-    <t>stage1hang</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>stage2hang</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>stage3hang</t>
-  </si>
-  <si>
-    <t>attackcount</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>stage1smashattackcount</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>stage1throwingattackcount</t>
-  </si>
-  <si>
-    <t>stage1throwingaccuracy</t>
-  </si>
-  <si>
-    <t>stage2attackcount</t>
+    <t>stage2crouch</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>stage3crouch</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>push</t>
   </si>
   <si>
     <t>10</t>
   </si>
   <si>
-    <t>stage2throwingaccuracy</t>
-  </si>
-  <si>
-    <t>bossyarnattackaccuracy</t>
-  </si>
-  <si>
-    <t>crouch</t>
-  </si>
-  <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>stage1crouch</t>
-  </si>
-  <si>
-    <t>stage2crouch</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>stage3crouch</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>push</t>
-  </si>
-  <si>
     <t>stage1push</t>
   </si>
   <si>
@@ -202,18 +211,12 @@
     <t>sign</t>
   </si>
   <si>
-    <t>8</t>
-  </si>
-  <si>
     <t>sign1</t>
   </si>
   <si>
     <t>sign2</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>sign3</t>
   </si>
   <si>
@@ -229,9 +232,6 @@
     <t>npc2</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>happy</t>
   </si>
   <si>
@@ -241,7 +241,7 @@
     <t>stage1bosstime</t>
   </si>
   <si>
-    <t>0.0</t>
+    <t>34.0</t>
   </si>
   <si>
     <t>boss1lives</t>
@@ -250,13 +250,19 @@
     <t>stage2bosstime</t>
   </si>
   <si>
+    <t>150.0</t>
+  </si>
+  <si>
     <t>boss2lives</t>
   </si>
   <si>
+    <t>6</t>
+  </si>
+  <si>
     <t>stage3bosstime</t>
   </si>
   <si>
-    <t>67.0</t>
+    <t>58.0</t>
   </si>
   <si>
     <t>boss3lives</t>
@@ -663,13 +669,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.625" customWidth="1"/>
+    <col min="1" max="1" width="18.375" customWidth="1"/>
+    <col min="2" max="2" width="17.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -794,15 +801,15 @@
         <v>28</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -810,47 +817,47 @@
         <v>31</v>
       </c>
       <c r="B18" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B20" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B22" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B23" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -858,167 +865,167 @@
         <v>41</v>
       </c>
       <c r="B24" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B26" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B28" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B29" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B31" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B32" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B33" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B34" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B35" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>44</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B37" t="s">
         <v>59</v>
-      </c>
-      <c r="B37" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B38" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B39" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B40" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B42" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B44" t="s">
-        <v>69</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
@@ -1026,7 +1033,7 @@
         <v>70</v>
       </c>
       <c r="B45" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
@@ -1034,7 +1041,7 @@
         <v>71</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>44</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
@@ -1050,7 +1057,7 @@
         <v>74</v>
       </c>
       <c r="B48" t="s">
-        <v>60</v>
+        <v>5</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
@@ -1058,115 +1065,116 @@
         <v>75</v>
       </c>
       <c r="B49" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B50" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B51" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B52" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B53" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B54" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B55" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B56" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B57" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B58" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B59" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>44</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B61" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B62" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/shoulder_test/exeloutput/Log_AllInOne.xlsx
+++ b/shoulder_test/exeloutput/Log_AllInOne.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\meowment\Still-Alive\shoulder_test\exeloutput\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08E92F47-1FE4-448B-AA8A-BE013DE79D10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E1E201E-4850-4119-9F05-31904024EE13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -711,14 +711,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="27.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
